--- a/data/trans_orig/IP24-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP24-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{023A9E92-C9B2-4F82-92EE-F793F3F277CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E57CAB-1F14-4512-AAB7-676E5C72958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4AF4BEDB-DB61-486E-89E0-68235ABECDED}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EAE202D5-C84B-4115-BAAA-59849CC54988}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>No hace ejercicio. Su tiempo libre lo ocupa de forma casi co</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
     <t>Hace actividad física regular varias veces al mes</t>
   </si>
   <si>
@@ -101,36 +161,6 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>Hace alguna actividad física o deportiva ocasional</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
     <t>Hace entrenamiento deportivo o físico varias veces por seman</t>
   </si>
   <si>
@@ -161,36 +191,6 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>No hace ejercicio. Su tiempo libre lo ocupa de forma casi co</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -224,9 +224,195 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
     <t>34,94%</t>
   </si>
   <si>
@@ -239,9 +425,6 @@
     <t>22,26%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
     <t>26,11%</t>
   </si>
   <si>
@@ -254,33 +437,6 @@
     <t>31,77%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
     <t>17,68%</t>
   </si>
   <si>
@@ -308,36 +464,6 @@
     <t>14,41%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,82%</t>
   </si>
   <si>
@@ -353,130 +479,58 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>19,72%</t>
@@ -503,33 +557,6 @@
     <t>15,09%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
     <t>9,23%</t>
   </si>
   <si>
@@ -557,33 +584,6 @@
     <t>7,84%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
     <t>2,86%</t>
   </si>
   <si>
@@ -614,6 +614,60 @@
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
@@ -641,33 +695,6 @@
     <t>5,58%</t>
   </si>
   <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
     <t>1,17%</t>
   </si>
   <si>
@@ -689,33 +716,6 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
     <t>2,83%</t>
   </si>
   <si>
@@ -740,6 +740,171 @@
     <t>4,77%</t>
   </si>
   <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
     <t>43,51%</t>
   </si>
   <si>
@@ -767,33 +932,6 @@
     <t>41,06%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
     <t>19,59%</t>
   </si>
   <si>
@@ -821,151 +959,61 @@
     <t>15,2%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
   </si>
   <si>
     <t>26,49%</t>
@@ -995,30 +1043,6 @@
     <t>24,53%</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
     <t>10,16%</t>
   </si>
   <si>
@@ -1043,30 +1067,6 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
     <t>0,88%</t>
   </si>
   <si>
@@ -1091,6 +1091,57 @@
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2015 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
     <t>6,53%</t>
   </si>
   <si>
@@ -1118,33 +1169,6 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
     <t>1,45%</t>
   </si>
   <si>
@@ -1169,30 +1193,6 @@
     <t>2,5%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
     <t>6,75%</t>
   </si>
   <si>
@@ -1211,6 +1211,177 @@
     <t>4,49%</t>
   </si>
   <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
     <t>34,04%</t>
   </si>
   <si>
@@ -1238,33 +1409,6 @@
     <t>32,87%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
     <t>14,42%</t>
   </si>
   <si>
@@ -1286,30 +1430,6 @@
     <t>12,89%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
@@ -1319,124 +1439,55 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>22,45%</t>
@@ -1463,33 +1514,6 @@
     <t>21,13%</t>
   </si>
   <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
     <t>8,44%</t>
   </si>
   <si>
@@ -1514,30 +1538,6 @@
     <t>7,6%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
     <t>2,34%</t>
   </si>
   <si>
@@ -1562,6 +1562,54 @@
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
     <t>8,47%</t>
   </si>
   <si>
@@ -1589,33 +1637,6 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
     <t>5,51%</t>
   </si>
   <si>
@@ -1634,27 +1655,6 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
     <t>7,66%</t>
   </si>
   <si>
@@ -1679,6 +1679,171 @@
     <t>10,5%</t>
   </si>
   <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
     <t>28,24%</t>
   </si>
   <si>
@@ -1706,30 +1871,6 @@
     <t>30,27%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
     <t>13,66%</t>
   </si>
   <si>
@@ -1754,30 +1895,6 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
@@ -1799,121 +1916,55 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>24,8%</t>
@@ -1943,33 +1994,6 @@
     <t>24,73%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
     <t>10,77%</t>
   </si>
   <si>
@@ -1989,30 +2013,6 @@
   </si>
   <si>
     <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
   </si>
   <si>
     <t>1,75%</t>
@@ -2425,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F224B6-1184-4F9E-8849-545653131304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627FE75C-6EC6-4744-8360-E29F7F9D2B7C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2543,10 +2543,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>3894</v>
+        <v>116001</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2558,10 +2558,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I4" s="7">
-        <v>7560</v>
+        <v>107722</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2573,10 +2573,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>338</v>
       </c>
       <c r="N4" s="7">
-        <v>11454</v>
+        <v>223723</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2645,10 +2645,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>1995</v>
+        <v>3894</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2660,10 +2660,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>2989</v>
+        <v>7560</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2675,10 +2675,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>4984</v>
+        <v>11454</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2696,10 +2696,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>116001</v>
+        <v>1995</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2711,10 +2711,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>107722</v>
+        <v>2989</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2726,10 +2726,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>223723</v>
+        <v>4984</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2851,10 +2851,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>98365</v>
+        <v>30133</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2866,10 +2866,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>58975</v>
+        <v>28612</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2881,10 +2881,10 @@
         <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>157340</v>
+        <v>58746</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2902,10 +2902,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>109310</v>
+        <v>130417</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -2917,10 +2917,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>155392</v>
+        <v>141289</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -2932,10 +2932,10 @@
         <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="N11" s="7">
-        <v>264702</v>
+        <v>271706</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2953,10 +2953,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>49770</v>
+        <v>40025</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -2968,10 +2968,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7">
-        <v>15207</v>
+        <v>25845</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -2983,10 +2983,10 @@
         <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>64977</v>
+        <v>65871</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -3004,10 +3004,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>22739</v>
+        <v>14849</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -3019,10 +3019,10 @@
         <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>35396</v>
+        <v>7536</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -3034,10 +3034,10 @@
         <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>58135</v>
+        <v>22385</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -3055,49 +3055,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>1315</v>
+        <v>2616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>1315</v>
+        <v>3824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,10 +3106,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D15" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3121,10 +3121,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="I15" s="7">
-        <v>264971</v>
+        <v>204490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -3136,10 +3136,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>815</v>
+        <v>633</v>
       </c>
       <c r="N15" s="7">
-        <v>546469</v>
+        <v>422531</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -3153,55 +3153,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>40025</v>
+        <v>22739</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>25845</v>
+        <v>35396</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>65871</v>
+        <v>58135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,49 +3210,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D17" s="7">
-        <v>130417</v>
+        <v>109310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="I17" s="7">
-        <v>141289</v>
+        <v>155392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="N17" s="7">
-        <v>271706</v>
+        <v>264702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,49 +3261,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D18" s="7">
-        <v>14849</v>
+        <v>98365</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I18" s="7">
-        <v>7536</v>
+        <v>58975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="N18" s="7">
-        <v>22385</v>
+        <v>157340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,49 +3312,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>30133</v>
+        <v>49770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>28612</v>
+        <v>15207</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N19" s="7">
-        <v>58746</v>
+        <v>64977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,49 +3363,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>2616</v>
+        <v>1315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>3824</v>
+        <v>1315</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,10 +3414,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D21" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -3429,10 +3429,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>204490</v>
+        <v>264971</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3444,10 +3444,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>633</v>
+        <v>815</v>
       </c>
       <c r="N21" s="7">
-        <v>422531</v>
+        <v>546469</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3467,10 +3467,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="D22" s="7">
-        <v>142284</v>
+        <v>168873</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>146</v>
@@ -3482,10 +3482,10 @@
         <v>148</v>
       </c>
       <c r="H22" s="7">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="I22" s="7">
-        <v>92381</v>
+        <v>171730</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>149</v>
@@ -3497,10 +3497,10 @@
         <v>151</v>
       </c>
       <c r="M22" s="7">
-        <v>354</v>
+        <v>513</v>
       </c>
       <c r="N22" s="7">
-        <v>234665</v>
+        <v>340603</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>152</v>
@@ -3509,7 +3509,7 @@
         <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3524,13 @@
         <v>322938</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>553</v>
@@ -3539,13 +3539,13 @@
         <v>374317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>1039</v>
@@ -3554,13 +3554,13 @@
         <v>697255</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,49 +3569,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="D24" s="7">
-        <v>66614</v>
+        <v>142284</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="I24" s="7">
-        <v>25731</v>
+        <v>92381</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
-        <v>138</v>
+        <v>354</v>
       </c>
       <c r="N24" s="7">
-        <v>92346</v>
+        <v>234665</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,10 +3620,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="D25" s="7">
-        <v>168873</v>
+        <v>66614</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>172</v>
@@ -3635,10 +3635,10 @@
         <v>174</v>
       </c>
       <c r="H25" s="7">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="I25" s="7">
-        <v>171730</v>
+        <v>25731</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>175</v>
@@ -3650,10 +3650,10 @@
         <v>177</v>
       </c>
       <c r="M25" s="7">
-        <v>513</v>
+        <v>138</v>
       </c>
       <c r="N25" s="7">
-        <v>340603</v>
+        <v>92346</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>178</v>
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFFBB9A-8194-42EC-95B9-F6D5FF6F1FD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F0BB6C-E1DE-43DB-B1CE-02D2EDC9D350}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3901,10 +3901,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7">
-        <v>8043</v>
+        <v>101301</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>191</v>
@@ -3916,10 +3916,10 @@
         <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="I4" s="7">
-        <v>9376</v>
+        <v>99873</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>194</v>
@@ -3931,10 +3931,10 @@
         <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="N4" s="7">
-        <v>17418</v>
+        <v>201175</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>197</v>
@@ -4003,10 +4003,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>2692</v>
+        <v>8043</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>209</v>
@@ -4018,34 +4018,34 @@
         <v>211</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>978</v>
+        <v>9376</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>3670</v>
+        <v>17418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,46 +4054,46 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>101301</v>
+        <v>2692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>99873</v>
+        <v>978</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>201175</v>
+        <v>3670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>224</v>
@@ -4126,7 +4126,7 @@
         <v>8407</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>228</v>
@@ -4209,10 +4209,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>117775</v>
+        <v>6792</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>233</v>
@@ -4224,34 +4224,34 @@
         <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>79241</v>
+        <v>15147</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>30</v>
+      </c>
+      <c r="N10" s="7">
+        <v>21939</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="M10" s="7">
-        <v>286</v>
-      </c>
-      <c r="N10" s="7">
-        <v>197016</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,49 +4260,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>89556</v>
+        <v>143743</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>228</v>
+      </c>
+      <c r="I11" s="7">
+        <v>162086</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="7">
-        <v>193</v>
-      </c>
-      <c r="I11" s="7">
-        <v>134423</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>426</v>
+      </c>
+      <c r="N11" s="7">
+        <v>305829</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M11" s="7">
-        <v>324</v>
-      </c>
-      <c r="N11" s="7">
-        <v>223979</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,49 +4311,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D12" s="7">
-        <v>53019</v>
+        <v>71022</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>60</v>
+      </c>
+      <c r="I12" s="7">
+        <v>42805</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12914</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>159</v>
+      </c>
+      <c r="N12" s="7">
+        <v>113828</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M12" s="7">
-        <v>95</v>
-      </c>
-      <c r="N12" s="7">
-        <v>65933</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,49 +4362,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>10352</v>
+        <v>19761</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6622</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H13" s="7">
-        <v>42</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28431</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>26383</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="M13" s="7">
-        <v>57</v>
-      </c>
-      <c r="N13" s="7">
-        <v>38783</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,43 +4419,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1431</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>764</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1431</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>764</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="D15" s="7">
-        <v>270702</v>
+        <v>241319</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4479,10 +4479,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>255774</v>
+        <v>228091</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4494,10 +4494,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>763</v>
+        <v>653</v>
       </c>
       <c r="N15" s="7">
-        <v>526476</v>
+        <v>469410</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4511,55 +4511,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>71022</v>
+        <v>10352</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7">
+        <v>28431</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42805</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>57</v>
+      </c>
+      <c r="N16" s="7">
+        <v>38783</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M16" s="7">
-        <v>159</v>
-      </c>
-      <c r="N16" s="7">
-        <v>113828</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,49 +4568,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="D17" s="7">
-        <v>143743</v>
+        <v>89556</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>193</v>
+      </c>
+      <c r="I17" s="7">
+        <v>134423</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H17" s="7">
-        <v>228</v>
-      </c>
-      <c r="I17" s="7">
-        <v>162086</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>324</v>
+      </c>
+      <c r="N17" s="7">
+        <v>223979</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="M17" s="7">
-        <v>426</v>
-      </c>
-      <c r="N17" s="7">
-        <v>305829</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,49 +4619,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="D18" s="7">
-        <v>19761</v>
+        <v>117775</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>110</v>
+      </c>
+      <c r="I18" s="7">
+        <v>79241</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6622</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>286</v>
+      </c>
+      <c r="N18" s="7">
+        <v>197016</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="M18" s="7">
-        <v>36</v>
-      </c>
-      <c r="N18" s="7">
-        <v>26383</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,40 +4670,40 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7">
-        <v>6792</v>
+        <v>53019</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>18</v>
+      </c>
+      <c r="I19" s="7">
+        <v>12914</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15147</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>302</v>
       </c>
       <c r="M19" s="7">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>21939</v>
+        <v>65933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>303</v>
@@ -4712,7 +4712,7 @@
         <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,43 +4727,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1431</v>
+        <v>764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>307</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>1431</v>
+        <v>764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="D21" s="7">
-        <v>241319</v>
+        <v>270702</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -4787,10 +4787,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="I21" s="7">
-        <v>228091</v>
+        <v>255774</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4802,10 +4802,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>653</v>
+        <v>763</v>
       </c>
       <c r="N21" s="7">
-        <v>469410</v>
+        <v>526476</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -4825,10 +4825,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="D22" s="7">
-        <v>196840</v>
+        <v>118446</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>309</v>
@@ -4840,10 +4840,10 @@
         <v>311</v>
       </c>
       <c r="H22" s="7">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="I22" s="7">
-        <v>131422</v>
+        <v>143451</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>312</v>
@@ -4855,19 +4855,19 @@
         <v>314</v>
       </c>
       <c r="M22" s="7">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="N22" s="7">
-        <v>328263</v>
+        <v>261896</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,10 +4885,10 @@
         <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>578</v>
@@ -4897,13 +4897,13 @@
         <v>399748</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>1067</v>
@@ -4912,13 +4912,13 @@
         <v>745413</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,40 +4927,40 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="D24" s="7">
-        <v>75472</v>
+        <v>196840</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>183</v>
+      </c>
+      <c r="I24" s="7">
+        <v>131422</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7">
-        <v>20515</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="M24" s="7">
-        <v>137</v>
+        <v>469</v>
       </c>
       <c r="N24" s="7">
-        <v>95986</v>
+        <v>328263</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>331</v>
@@ -4978,10 +4978,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="D25" s="7">
-        <v>118446</v>
+        <v>75472</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>334</v>
@@ -4993,10 +4993,10 @@
         <v>336</v>
       </c>
       <c r="H25" s="7">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>143451</v>
+        <v>20515</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>337</v>
@@ -5005,16 +5005,16 @@
         <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" s="7">
+        <v>137</v>
+      </c>
+      <c r="N25" s="7">
+        <v>95986</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="M25" s="7">
-        <v>379</v>
-      </c>
-      <c r="N25" s="7">
-        <v>261896</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>340</v>
@@ -5053,7 +5053,7 @@
         <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>346</v>
@@ -5071,7 +5071,7 @@
         <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243EB31F-1D8B-416A-A452-5288E908481B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC31A9A-CF63-4CA3-80A7-FBD5865C29DB}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5259,10 +5259,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
-        <v>13749</v>
+        <v>92600</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>350</v>
@@ -5274,10 +5274,10 @@
         <v>352</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="I4" s="7">
-        <v>7442</v>
+        <v>97898</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>353</v>
@@ -5289,10 +5289,10 @@
         <v>355</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="N4" s="7">
-        <v>21191</v>
+        <v>190498</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>356</v>
@@ -5316,13 +5316,13 @@
         <v>92600</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>145</v>
@@ -5331,13 +5331,13 @@
         <v>88824</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>287</v>
@@ -5346,13 +5346,13 @@
         <v>181424</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,40 +5361,40 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>3057</v>
+        <v>13749</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7442</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2521</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>372</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N6" s="7">
-        <v>5578</v>
+        <v>21191</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>373</v>
@@ -5412,40 +5412,40 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>92600</v>
+        <v>3057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>97898</v>
+        <v>2521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>380</v>
       </c>
       <c r="M7" s="7">
-        <v>293</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>190498</v>
+        <v>5578</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>381</v>
@@ -5469,10 +5469,10 @@
         <v>8612</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>384</v>
@@ -5567,10 +5567,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>95273</v>
+        <v>17069</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>390</v>
@@ -5582,10 +5582,10 @@
         <v>392</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>65226</v>
+        <v>24558</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>393</v>
@@ -5597,10 +5597,10 @@
         <v>395</v>
       </c>
       <c r="M10" s="7">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>160499</v>
+        <v>41627</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>396</v>
@@ -5618,10 +5618,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>129526</v>
+        <v>154735</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>399</v>
@@ -5633,10 +5633,10 @@
         <v>401</v>
       </c>
       <c r="H11" s="7">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="I11" s="7">
-        <v>152284</v>
+        <v>156478</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>402</v>
@@ -5648,10 +5648,10 @@
         <v>404</v>
       </c>
       <c r="M11" s="7">
-        <v>392</v>
+        <v>464</v>
       </c>
       <c r="N11" s="7">
-        <v>281811</v>
+        <v>311213</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>405</v>
@@ -5669,10 +5669,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7">
-        <v>40348</v>
+        <v>57197</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>408</v>
@@ -5684,34 +5684,34 @@
         <v>410</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>16826</v>
+        <v>41117</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>127</v>
+        <v>411</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>194</v>
+        <v>412</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M12" s="7">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="N12" s="7">
-        <v>57174</v>
+        <v>98314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,49 +5720,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>14735</v>
+        <v>19072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>31911</v>
+        <v>12581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>46645</v>
+        <v>31652</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,49 +5771,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>836</v>
+        <v>600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>836</v>
+        <v>2579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,10 +5822,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D15" s="7">
-        <v>279882</v>
+        <v>250052</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5837,10 +5837,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I15" s="7">
-        <v>267083</v>
+        <v>235333</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5852,10 +5852,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="N15" s="7">
-        <v>546965</v>
+        <v>485385</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5869,55 +5869,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>57197</v>
+        <v>14735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>41117</v>
+        <v>31911</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M16" s="7">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>98314</v>
+        <v>46645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,49 +5926,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="D17" s="7">
-        <v>154735</v>
+        <v>129526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H17" s="7">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="I17" s="7">
-        <v>156478</v>
+        <v>152284</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M17" s="7">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="N17" s="7">
-        <v>311213</v>
+        <v>281811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,49 +5977,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D18" s="7">
-        <v>19072</v>
+        <v>95273</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I18" s="7">
-        <v>12581</v>
+        <v>65226</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M18" s="7">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="N18" s="7">
-        <v>31652</v>
+        <v>160499</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,49 +6028,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>17069</v>
+        <v>40348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>24558</v>
+        <v>16826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M19" s="7">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="N19" s="7">
-        <v>41627</v>
+        <v>57174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,46 +6079,46 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1979</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>463</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>600</v>
+        <v>836</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>2579</v>
+        <v>836</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>465</v>
@@ -6130,10 +6130,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D21" s="7">
-        <v>250052</v>
+        <v>279882</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -6145,10 +6145,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="I21" s="7">
-        <v>235333</v>
+        <v>267083</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -6160,10 +6160,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="N21" s="7">
-        <v>485385</v>
+        <v>546965</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6183,10 +6183,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="D22" s="7">
-        <v>166219</v>
+        <v>124404</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>466</v>
@@ -6198,34 +6198,34 @@
         <v>468</v>
       </c>
       <c r="H22" s="7">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="I22" s="7">
-        <v>113785</v>
+        <v>154366</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="N22" s="7">
-        <v>280005</v>
+        <v>278770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,10 +6285,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="D24" s="7">
-        <v>62477</v>
+        <v>166219</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>483</v>
@@ -6300,31 +6300,31 @@
         <v>485</v>
       </c>
       <c r="H24" s="7">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="I24" s="7">
-        <v>31928</v>
+        <v>113785</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>486</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>390</v>
+      </c>
+      <c r="N24" s="7">
+        <v>280005</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="M24" s="7">
-        <v>139</v>
-      </c>
-      <c r="N24" s="7">
-        <v>94405</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>490</v>
@@ -6336,10 +6336,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="D25" s="7">
-        <v>124404</v>
+        <v>62477</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>491</v>
@@ -6351,10 +6351,10 @@
         <v>493</v>
       </c>
       <c r="H25" s="7">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>154366</v>
+        <v>31928</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>494</v>
@@ -6366,19 +6366,19 @@
         <v>496</v>
       </c>
       <c r="M25" s="7">
-        <v>421</v>
+        <v>139</v>
       </c>
       <c r="N25" s="7">
-        <v>278770</v>
+        <v>94405</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>497</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,10 +6393,10 @@
         <v>10591</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>499</v>
@@ -6499,7 +6499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7208DB17-2BED-4AFB-BA2A-114364B33D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465CD0C8-C72A-4AA0-8BBA-AB7F005DF630}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6617,10 +6617,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>9716</v>
+        <v>40605</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>507</v>
@@ -6629,37 +6629,37 @@
         <v>508</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="7">
+        <v>70</v>
+      </c>
+      <c r="I4" s="7">
+        <v>34673</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9772</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>156</v>
+      </c>
+      <c r="N4" s="7">
+        <v>75278</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="M4" s="7">
-        <v>35</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19488</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +6674,13 @@
         <v>51676</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -6689,13 +6689,13 @@
         <v>44108</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M5" s="7">
         <v>173</v>
@@ -6704,13 +6704,13 @@
         <v>95785</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,49 +6719,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>3925</v>
+        <v>9716</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>524</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>421</v>
+        <v>525</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>5636</v>
+        <v>9772</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>9562</v>
+        <v>19488</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,49 +6770,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>40605</v>
+        <v>3925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5636</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="7">
-        <v>70</v>
-      </c>
-      <c r="I7" s="7">
-        <v>34673</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>19</v>
+      </c>
+      <c r="N7" s="7">
+        <v>9562</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="M7" s="7">
-        <v>156</v>
-      </c>
-      <c r="N7" s="7">
-        <v>75278</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,7 +6848,7 @@
         <v>542</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -6925,49 +6925,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>113712</v>
+        <v>24180</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>546</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31374</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="H10" s="7">
-        <v>118</v>
-      </c>
-      <c r="I10" s="7">
-        <v>89302</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>79</v>
+      </c>
+      <c r="N10" s="7">
+        <v>55555</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="M10" s="7">
-        <v>251</v>
-      </c>
-      <c r="N10" s="7">
-        <v>203014</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,49 +6976,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>165548</v>
+        <v>100355</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>165</v>
+      </c>
+      <c r="I11" s="7">
+        <v>118874</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="H11" s="7">
-        <v>211</v>
-      </c>
-      <c r="I11" s="7">
-        <v>158793</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>297</v>
+      </c>
+      <c r="N11" s="7">
+        <v>219229</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="M11" s="7">
-        <v>403</v>
-      </c>
-      <c r="N11" s="7">
-        <v>324341</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7027,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D12" s="7">
-        <v>67497</v>
+        <v>55560</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>152</v>
+        <v>562</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>563</v>
@@ -7042,10 +7042,10 @@
         <v>564</v>
       </c>
       <c r="H12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>38469</v>
+        <v>32395</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>565</v>
@@ -7057,10 +7057,10 @@
         <v>567</v>
       </c>
       <c r="M12" s="7">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="N12" s="7">
-        <v>105966</v>
+        <v>87955</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>568</v>
@@ -7078,10 +7078,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>54335</v>
+        <v>21879</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>571</v>
@@ -7090,28 +7090,28 @@
         <v>572</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>573</v>
       </c>
       <c r="H13" s="7">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>61251</v>
+        <v>11752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>574</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>575</v>
       </c>
       <c r="M13" s="7">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>115586</v>
+        <v>33630</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>576</v>
@@ -7129,10 +7129,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>1618</v>
+        <v>2193</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>579</v>
@@ -7141,37 +7141,37 @@
         <v>580</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>581</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>2994</v>
+        <v>3872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>4612</v>
+        <v>6065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>584</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>585</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,10 +7180,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D15" s="7">
-        <v>402710</v>
+        <v>204167</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7195,10 +7195,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7210,10 +7210,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>941</v>
+        <v>551</v>
       </c>
       <c r="N15" s="7">
-        <v>753519</v>
+        <v>402435</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7227,55 +7227,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>55560</v>
+        <v>54335</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" s="7">
+        <v>72</v>
+      </c>
+      <c r="I16" s="7">
+        <v>61251</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="H16" s="7">
-        <v>47</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32395</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>136</v>
+      </c>
+      <c r="N16" s="7">
+        <v>115586</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="M16" s="7">
-        <v>115</v>
-      </c>
-      <c r="N16" s="7">
-        <v>87955</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,49 +7284,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7">
-        <v>100355</v>
+        <v>165548</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>211</v>
+      </c>
+      <c r="I17" s="7">
+        <v>158793</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="H17" s="7">
-        <v>165</v>
-      </c>
-      <c r="I17" s="7">
-        <v>118874</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>403</v>
+      </c>
+      <c r="N17" s="7">
+        <v>324341</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="M17" s="7">
-        <v>297</v>
-      </c>
-      <c r="N17" s="7">
-        <v>219229</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>602</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,49 +7335,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="D18" s="7">
-        <v>21879</v>
+        <v>113712</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H18" s="7">
+        <v>118</v>
+      </c>
+      <c r="I18" s="7">
+        <v>89302</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H18" s="7">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11752</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>251</v>
+      </c>
+      <c r="N18" s="7">
+        <v>203014</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="M18" s="7">
-        <v>50</v>
-      </c>
-      <c r="N18" s="7">
-        <v>33630</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,49 +7386,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7">
-        <v>24180</v>
+        <v>67497</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H19" s="7">
+        <v>57</v>
+      </c>
+      <c r="I19" s="7">
+        <v>38469</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H19" s="7">
-        <v>43</v>
-      </c>
-      <c r="I19" s="7">
-        <v>31374</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>144</v>
+      </c>
+      <c r="N19" s="7">
+        <v>105966</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="M19" s="7">
-        <v>79</v>
-      </c>
-      <c r="N19" s="7">
-        <v>55555</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,49 +7437,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1618</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
-        <v>2193</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>2994</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="H20" s="7">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3872</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>7</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4612</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="M20" s="7">
-        <v>10</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6065</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,10 +7488,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D21" s="7">
-        <v>204167</v>
+        <v>402710</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7503,10 +7503,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I21" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7518,10 +7518,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>551</v>
+        <v>941</v>
       </c>
       <c r="N21" s="7">
-        <v>402435</v>
+        <v>753519</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7541,10 +7541,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D22" s="7">
-        <v>178988</v>
+        <v>119121</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>625</v>
@@ -7556,10 +7556,10 @@
         <v>627</v>
       </c>
       <c r="H22" s="7">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I22" s="7">
-        <v>131469</v>
+        <v>127298</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>628</v>
@@ -7571,19 +7571,19 @@
         <v>630</v>
       </c>
       <c r="M22" s="7">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="N22" s="7">
-        <v>310457</v>
+        <v>246419</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>631</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,13 +7598,13 @@
         <v>317578</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H23" s="7">
         <v>456</v>
@@ -7613,13 +7613,13 @@
         <v>321776</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="M23" s="7">
         <v>873</v>
@@ -7628,13 +7628,13 @@
         <v>639355</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7643,13 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="D24" s="7">
-        <v>93301</v>
+        <v>178988</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>642</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>643</v>
@@ -7658,34 +7658,34 @@
         <v>644</v>
       </c>
       <c r="H24" s="7">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="I24" s="7">
-        <v>55857</v>
+        <v>131469</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>458</v>
+        <v>645</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M24" s="7">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="N24" s="7">
-        <v>149158</v>
+        <v>310457</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7694,13 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="D25" s="7">
-        <v>119121</v>
+        <v>93301</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>650</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>651</v>
@@ -7709,31 +7709,31 @@
         <v>652</v>
       </c>
       <c r="H25" s="7">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="I25" s="7">
-        <v>127298</v>
+        <v>55857</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>213</v>
+      </c>
+      <c r="N25" s="7">
+        <v>149158</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="M25" s="7">
-        <v>371</v>
-      </c>
-      <c r="N25" s="7">
-        <v>246419</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>657</v>
@@ -7769,7 +7769,7 @@
         <v>661</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>662</v>

--- a/data/trans_orig/IP24-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP24-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DFC1E4-3867-422F-B1C2-6AD55225A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E0B1B0-DAB1-4B31-AB02-84941B92CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CE8CB9D-4F9D-467A-B12E-CFE816BD7A0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{197FF477-F071-4EF3-93C9-32D06BEB3C49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="787">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2007 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -77,2347 +77,2329 @@
     <t>11,86%</t>
   </si>
   <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Hace entrenamiento deportivo o físico varias veces por seman</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Hace actividad física regular varias veces al mes</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>No hace ejercicio. Su tiempo libre lo ocupa de forma casi co</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>Hace entrenamiento deportivo o físico varias veces por seman</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>Hace actividad física regular varias veces al mes</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>Hace alguna actividad física o deportiva ocasional</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>No hace ejercicio. Su tiempo libre lo ocupa de forma casi co</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>19,58%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5070C460-D91C-453B-BB57-3398D1876B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBFB391-5555-4439-8A04-D6A2973BB8D5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3794,7 +3776,7 @@
         <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -3803,13 +3785,13 @@
         <v>29306</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3847,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3883,7 +3865,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3898,7 +3880,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3913,7 +3895,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3910,13 @@
         <v>40638</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3943,13 +3925,13 @@
         <v>11500</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -3958,13 +3940,13 @@
         <v>52138</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3961,13 @@
         <v>76890</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>67</v>
@@ -3994,13 +3976,13 @@
         <v>45566</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>183</v>
@@ -4009,13 +3991,13 @@
         <v>122456</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4012,13 @@
         <v>72799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -4045,13 +4027,13 @@
         <v>109900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -4060,13 +4042,13 @@
         <v>182698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4063,13 @@
         <v>15722</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -4096,13 +4078,13 @@
         <v>27131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -4111,13 +4093,13 @@
         <v>42853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4167,13 @@
         <v>20638</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -4200,13 +4182,13 @@
         <v>14775</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -4218,10 +4200,10 @@
         <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4218,13 @@
         <v>66614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -4251,13 +4233,13 @@
         <v>25731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
@@ -4266,13 +4248,13 @@
         <v>92346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4269,13 @@
         <v>142284</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>139</v>
@@ -4302,13 +4284,13 @@
         <v>92381</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>354</v>
@@ -4317,13 +4299,13 @@
         <v>234665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4320,13 @@
         <v>322938</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>553</v>
@@ -4353,13 +4335,13 @@
         <v>374317</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>1039</v>
@@ -4368,13 +4350,13 @@
         <v>697255</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4371,13 @@
         <v>168873</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>260</v>
@@ -4404,13 +4386,13 @@
         <v>171730</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>513</v>
@@ -4419,13 +4401,13 @@
         <v>340603</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4463,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4E09BD-04EA-406F-9110-1E6784C045B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3879661A-71DD-447B-9721-A00581E8FC1F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4518,7 +4500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4625,13 +4607,13 @@
         <v>6533</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4640,13 +4622,13 @@
         <v>8407</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -4655,13 +4637,13 @@
         <v>14940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4664,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4691,13 +4673,13 @@
         <v>480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4706,13 +4688,13 @@
         <v>480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4709,13 @@
         <v>747</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4742,13 +4724,13 @@
         <v>3875</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4760,10 +4742,10 @@
         <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4760,13 @@
         <v>41257</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -4793,13 +4775,13 @@
         <v>46949</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>131</v>
@@ -4808,13 +4790,13 @@
         <v>88206</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4811,13 @@
         <v>90579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -4844,13 +4826,13 @@
         <v>84118</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>253</v>
@@ -4859,13 +4841,13 @@
         <v>174697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4921,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4948,7 +4930,7 @@
         <v>675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>21</v>
@@ -4969,7 +4951,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4966,13 @@
         <v>12427</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4999,13 +4981,13 @@
         <v>3610</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5014,13 +4996,13 @@
         <v>16037</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5017,13 @@
         <v>54700</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -5050,7 +5032,7 @@
         <v>34221</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>281</v>
@@ -5173,7 +5155,7 @@
         <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,7 +5229,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5256,13 +5238,13 @@
         <v>1520</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5277,7 +5259,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5274,13 @@
         <v>24170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5307,13 +5289,13 @@
         <v>8358</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -5322,13 +5304,13 @@
         <v>32528</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5325,13 @@
         <v>64598</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -5358,13 +5340,13 @@
         <v>41230</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>153</v>
@@ -5373,13 +5355,13 @@
         <v>105828</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5376,13 @@
         <v>66176</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>140</v>
@@ -5409,13 +5391,13 @@
         <v>98774</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>234</v>
@@ -5424,13 +5406,13 @@
         <v>164951</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5427,13 @@
         <v>1977</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5460,13 +5442,13 @@
         <v>6523</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -5475,13 +5457,13 @@
         <v>8499</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5519,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5570,7 +5552,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5585,7 +5567,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5582,13 @@
         <v>38874</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -5615,13 +5597,13 @@
         <v>8066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -5630,13 +5612,13 @@
         <v>46941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>97</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5633,13 @@
         <v>76795</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -5666,13 +5648,13 @@
         <v>52096</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -5681,13 +5663,13 @@
         <v>128891</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5684,13 @@
         <v>54567</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -5717,13 +5699,13 @@
         <v>86469</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M25" s="7">
         <v>204</v>
@@ -5732,13 +5714,13 @@
         <v>141036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5735,13 @@
         <v>9718</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -5768,13 +5750,13 @@
         <v>24705</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -5783,13 +5765,13 @@
         <v>34424</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5839,13 @@
         <v>6533</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5872,7 +5854,7 @@
         <v>10602</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>377</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>378</v>
@@ -5944,7 +5926,7 @@
         <v>389</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6007,13 @@
         <v>399748</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>402</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M31" s="7">
         <v>1067</v>
@@ -6040,13 +6022,13 @@
         <v>745413</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,10 +6043,10 @@
         <v>118446</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>409</v>
@@ -6082,7 +6064,7 @@
         <v>411</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>412</v>
+        <v>123</v>
       </c>
       <c r="M32" s="7">
         <v>379</v>
@@ -6091,13 +6073,13 @@
         <v>261896</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,7 +6135,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CBB1D-C833-4526-892B-3B08466A31A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6343DF9-EA86-40FC-83B7-1FD4496AC2D2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6190,7 +6172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6297,13 +6279,13 @@
         <v>8612</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6312,13 +6294,13 @@
         <v>2882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6327,13 +6309,13 @@
         <v>11494</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6336,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6363,13 +6345,13 @@
         <v>1022</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6378,13 +6360,13 @@
         <v>1022</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6381,13 @@
         <v>3597</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6414,7 +6396,7 @@
         <v>1206</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>21</v>
@@ -6432,10 +6414,10 @@
         <v>431</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6432,13 @@
         <v>38089</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -6465,10 +6447,10 @@
         <v>43331</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>438</v>
@@ -6537,7 +6519,7 @@
         <v>449</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>87</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6587,13 @@
         <v>1979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6626,7 +6608,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -6635,13 +6617,13 @@
         <v>3010</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6638,13 @@
         <v>11316</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -6671,13 +6653,13 @@
         <v>7256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>458</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -6686,13 +6668,13 @@
         <v>18572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>461</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6689,13 @@
         <v>45168</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -6722,13 +6704,13 @@
         <v>28204</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>109</v>
@@ -6737,13 +6719,13 @@
         <v>73372</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +6740,13 @@
         <v>164987</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>222</v>
@@ -6773,13 +6755,13 @@
         <v>141653</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M13" s="7">
         <v>465</v>
@@ -6788,13 +6770,13 @@
         <v>306640</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6791,13 @@
         <v>34611</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -6842,10 +6824,10 @@
         <v>487</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,7 +6901,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6928,7 +6910,7 @@
         <v>600</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
@@ -6949,7 +6931,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,10 +6949,10 @@
         <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -6979,13 +6961,13 @@
         <v>11926</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -6994,13 +6976,13 @@
         <v>34454</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +6997,13 @@
         <v>60370</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -7030,13 +7012,13 @@
         <v>40001</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -7045,13 +7027,13 @@
         <v>100372</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7048,13 @@
         <v>97129</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -7081,13 +7063,13 @@
         <v>121336</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M19" s="7">
         <v>311</v>
@@ -7096,13 +7078,13 @@
         <v>218465</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7099,13 @@
         <v>7498</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -7132,13 +7114,13 @@
         <v>15035</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7147,13 +7129,13 @@
         <v>22533</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,7 +7191,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7227,7 +7209,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7236,13 +7218,13 @@
         <v>836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7251,13 +7233,13 @@
         <v>836</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7254,13 @@
         <v>28632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>531</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -7287,13 +7269,13 @@
         <v>11724</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>535</v>
+        <v>181</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -7302,13 +7284,13 @@
         <v>40356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7305,13 @@
         <v>57083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -7338,13 +7320,13 @@
         <v>44374</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M24" s="7">
         <v>136</v>
@@ -7353,13 +7335,13 @@
         <v>101458</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>321</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7356,13 @@
         <v>76657</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -7389,13 +7371,13 @@
         <v>91265</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M25" s="7">
         <v>236</v>
@@ -7404,13 +7386,13 @@
         <v>167922</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7407,13 @@
         <v>10975</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -7440,13 +7422,13 @@
         <v>24415</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -7455,13 +7437,13 @@
         <v>35390</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,13 +7511,13 @@
         <v>10591</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -7547,10 +7529,10 @@
         <v>565</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>566</v>
+        <v>340</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -7559,13 +7541,13 @@
         <v>15939</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>30</v>
+        <v>567</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>569</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,13 +7562,13 @@
         <v>62477</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>570</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -7595,13 +7577,13 @@
         <v>31928</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>574</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>139</v>
@@ -7610,13 +7592,13 @@
         <v>94405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>68</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7613,13 @@
         <v>166219</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="H30" s="7">
         <v>164</v>
@@ -7646,13 +7628,13 @@
         <v>113785</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M30" s="7">
         <v>390</v>
@@ -7661,13 +7643,13 @@
         <v>280005</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>283</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7664,13 @@
         <v>376862</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="H31" s="7">
         <v>598</v>
@@ -7697,13 +7679,13 @@
         <v>397586</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="M31" s="7">
         <v>1143</v>
@@ -7712,13 +7694,13 @@
         <v>774448</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,7 +7721,7 @@
         <v>593</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>124</v>
+        <v>594</v>
       </c>
       <c r="H32" s="7">
         <v>237</v>
@@ -7748,13 +7730,13 @@
         <v>154366</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M32" s="7">
         <v>421</v>
@@ -7763,13 +7745,13 @@
         <v>278770</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>599</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,7 +7807,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7845,7 +7827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995F3DB-2F65-4AB6-9325-A8E88FDD562A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A573EA-6C1D-464C-98D8-E2C16E5773BA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7972,7 +7954,7 @@
         <v>601</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>416</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>602</v>
@@ -7987,10 +7969,10 @@
         <v>603</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -7999,10 +7981,10 @@
         <v>10432</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>607</v>
@@ -8023,10 +8005,10 @@
         <v>608</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -8035,13 +8017,13 @@
         <v>3104</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>612</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -8050,13 +8032,13 @@
         <v>4852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>612</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8053,13 @@
         <v>1110</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>617</v>
+        <v>497</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -8086,13 +8068,13 @@
         <v>2713</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -8101,13 +8083,13 @@
         <v>3823</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>618</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8122,13 +8104,13 @@
         <v>19975</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -8137,13 +8119,13 @@
         <v>19207</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -8152,13 +8134,13 @@
         <v>39183</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8155,13 @@
         <v>28465</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -8188,13 +8170,13 @@
         <v>24820</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -8203,13 +8185,13 @@
         <v>53285</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8259,13 @@
         <v>6393</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>640</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -8292,13 +8274,13 @@
         <v>4316</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -8307,10 +8289,10 @@
         <v>10709</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>646</v>
@@ -8331,7 +8313,7 @@
         <v>647</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>648</v>
@@ -8412,10 +8394,10 @@
         <v>661</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>662</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8430,13 +8412,13 @@
         <v>90898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -8445,13 +8427,13 @@
         <v>94983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -8460,13 +8442,13 @@
         <v>185880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8463,13 @@
         <v>26615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -8496,13 +8478,13 @@
         <v>30532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>677</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -8514,7 +8496,7 @@
         <v>678</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>679</v>
@@ -8600,10 +8582,10 @@
         <v>2468</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>682</v>
@@ -8615,13 +8597,13 @@
         <v>3452</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,13 +8618,13 @@
         <v>28304</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>688</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -8651,13 +8633,13 @@
         <v>18046</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -8666,13 +8648,13 @@
         <v>46350</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8687,13 +8669,13 @@
         <v>54931</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>696</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -8702,13 +8684,13 @@
         <v>38940</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>698</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>699</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>112</v>
@@ -8717,13 +8699,13 @@
         <v>93871</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>579</v>
+        <v>698</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8738,13 +8720,13 @@
         <v>92460</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -8759,7 +8741,7 @@
         <v>705</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
       <c r="M19" s="7">
         <v>236</v>
@@ -8768,13 +8750,13 @@
         <v>188443</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8789,13 +8771,13 @@
         <v>24911</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>712</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -8804,13 +8786,13 @@
         <v>20676</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -8819,13 +8801,13 @@
         <v>45587</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,7 +8863,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8893,13 +8875,13 @@
         <v>794</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>719</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -8908,13 +8890,13 @@
         <v>2171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>720</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>718</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -8923,13 +8905,13 @@
         <v>2964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>722</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,13 +8926,13 @@
         <v>51626</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -8959,13 +8941,13 @@
         <v>26514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>725</v>
       </c>
       <c r="M23" s="7">
         <v>108</v>
@@ -8974,13 +8956,13 @@
         <v>78139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8995,13 +8977,13 @@
         <v>83630</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>732</v>
       </c>
       <c r="H24" s="7">
         <v>91</v>
@@ -9010,13 +8992,13 @@
         <v>69075</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>735</v>
       </c>
       <c r="M24" s="7">
         <v>190</v>
@@ -9025,13 +9007,13 @@
         <v>152705</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9064,10 +9046,10 @@
         <v>740</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>742</v>
       </c>
       <c r="M25" s="7">
         <v>278</v>
@@ -9076,13 +9058,13 @@
         <v>225849</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9097,13 +9079,13 @@
         <v>39129</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>748</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -9112,13 +9094,13 @@
         <v>51271</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>751</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -9127,13 +9109,13 @@
         <v>90400</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9201,13 +9183,13 @@
         <v>12594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>755</v>
+        <v>381</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>756</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>757</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -9216,10 +9198,10 @@
         <v>14964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>377</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>72</v>
@@ -9231,13 +9213,13 @@
         <v>27558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>339</v>
+        <v>754</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9252,13 +9234,13 @@
         <v>93301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H29" s="7">
         <v>89</v>
@@ -9270,10 +9252,10 @@
         <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="M29" s="7">
         <v>213</v>
@@ -9282,13 +9264,13 @@
         <v>149158</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9303,13 +9285,13 @@
         <v>178988</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="H30" s="7">
         <v>183</v>
@@ -9318,13 +9300,13 @@
         <v>131469</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>44</v>
+        <v>767</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>771</v>
+        <v>710</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -9333,13 +9315,13 @@
         <v>310457</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>774</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,13 +9336,13 @@
         <v>317578</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H31" s="7">
         <v>456</v>
@@ -9369,13 +9351,13 @@
         <v>321776</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>780</v>
+        <v>701</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>781</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>873</v>
@@ -9384,13 +9366,13 @@
         <v>639355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9405,13 +9387,13 @@
         <v>119121</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H32" s="7">
         <v>185</v>
@@ -9420,13 +9402,13 @@
         <v>127298</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="M32" s="7">
         <v>371</v>
@@ -9435,13 +9417,13 @@
         <v>246419</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,7 +9479,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
